--- a/study/vucauk_port/data/testdata_admin.xlsx
+++ b/study/vucauk_port/data/testdata_admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="24" activeTab="25"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -9070,7 +9070,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -12487,7 +12487,7 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -14173,9 +14173,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14550,9 +14548,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14765,9 +14761,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15196,13 +15190,11 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -21746,7 +21738,7 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -23187,7 +23179,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
